--- a/data/data_raw/eurostat/AT_coal_en_bal_nrg_bal_c.xlsx
+++ b/data/data_raw/eurostat/AT_coal_en_bal_nrg_bal_c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM140"/>
+  <dimension ref="A1:AN140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -751,6 +756,9 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,6 +890,9 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1009,7 +1020,10 @@
         <v>29998.895</v>
       </c>
       <c r="AM4" t="n">
-        <v>28605.297</v>
+        <v>29248.446</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>28892.276</v>
       </c>
     </row>
     <row r="5">
@@ -1140,6 +1154,9 @@
       <c r="AM5" t="n">
         <v>414.724</v>
       </c>
+      <c r="AN5" t="n">
+        <v>384.521</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1267,7 +1284,10 @@
         <v>174.796</v>
       </c>
       <c r="AM6" t="n">
-        <v>27.483</v>
+        <v>27.475</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-563.1900000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1396,7 +1416,10 @@
         <v>29721.268</v>
       </c>
       <c r="AM7" t="n">
-        <v>28218.055</v>
+        <v>28861.196</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>27944.566</v>
       </c>
     </row>
     <row r="8">
@@ -1527,6 +1550,9 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1654,7 +1680,10 @@
         <v>29721.268</v>
       </c>
       <c r="AM9" t="n">
-        <v>28218.055</v>
+        <v>28861.196</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>27944.566</v>
       </c>
     </row>
     <row r="10">
@@ -1719,6 +1748,7 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1846,7 +1876,10 @@
         <v>29721.268</v>
       </c>
       <c r="AM11" t="n">
-        <v>28218.055</v>
+        <v>28861.196</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>27944.566</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1893,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gross inland consumption (Europe 2020-2030) [GIC2020-2030]</t>
+          <t>Gross inland consumption - Energy Efficiency Directive [GIC_EED]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1911,6 +1944,7 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1923,7 +1957,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Primary energy consumption (Europe 2020-2030) [PEC2020-2030]</t>
+          <t>Primary energy consumption - Energy Efficiency Directive [PEC_EED]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1974,6 +2008,7 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1986,7 +2021,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Final energy consumption (Europe 2020-2030) [FEC2020-2030]</t>
+          <t>Final energy consumption - Energy Efficiency Directive [FEC_EED]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2037,6 +2072,7 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2161,10 +2197,13 @@
         <v>35375.017</v>
       </c>
       <c r="AL15" t="n">
-        <v>36460.851</v>
+        <v>37352.146</v>
       </c>
       <c r="AM15" t="n">
-        <v>35153.023</v>
+        <v>36113.443</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>35644.945</v>
       </c>
     </row>
     <row r="16">
@@ -2295,6 +2334,9 @@
       <c r="AM16" t="n">
         <v>93.813</v>
       </c>
+      <c r="AN16" t="n">
+        <v>25.922</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2424,6 +2466,9 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2553,6 +2598,9 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2682,6 +2730,9 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2811,6 +2862,9 @@
       <c r="AM20" t="n">
         <v>0.407</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2940,6 +2994,9 @@
       <c r="AM21" t="n">
         <v>93.407</v>
       </c>
+      <c r="AN21" t="n">
+        <v>25.922</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3067,6 +3124,9 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3132,6 +3192,7 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3195,6 +3256,7 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3258,6 +3320,7 @@
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3321,6 +3384,7 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3384,6 +3448,7 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3513,6 +3578,9 @@
       <c r="AM28" t="n">
         <v>14300.502</v>
       </c>
+      <c r="AN28" t="n">
+        <v>14352.067</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3637,10 +3705,13 @@
         <v>19809.787</v>
       </c>
       <c r="AL29" t="n">
-        <v>22038.567</v>
+        <v>22929.862</v>
       </c>
       <c r="AM29" t="n">
-        <v>20758.707</v>
+        <v>21719.127</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>21266.956</v>
       </c>
     </row>
     <row r="30">
@@ -3769,6 +3840,9 @@
         <v>0</v>
       </c>
       <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3834,6 +3908,7 @@
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3897,6 +3972,7 @@
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3960,6 +4036,7 @@
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4023,6 +4100,7 @@
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4086,6 +4164,7 @@
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4149,6 +4228,7 @@
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4212,6 +4292,7 @@
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4341,6 +4422,9 @@
       <c r="AM38" t="n">
         <v>0</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4470,6 +4554,9 @@
       <c r="AM39" t="n">
         <v>0</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4597,6 +4684,9 @@
         <v>0</v>
       </c>
       <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4662,6 +4752,7 @@
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4725,6 +4816,7 @@
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4788,6 +4880,7 @@
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4851,6 +4944,7 @@
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4980,6 +5074,9 @@
       <c r="AM45" t="n">
         <v>0</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5108,6 +5205,9 @@
       </c>
       <c r="AM46" t="n">
         <v>10438.402</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>10704.919</v>
       </c>
     </row>
     <row r="47">
@@ -5172,6 +5272,7 @@
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5235,6 +5336,7 @@
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5298,6 +5400,7 @@
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5361,6 +5464,7 @@
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5424,6 +5528,7 @@
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5487,6 +5592,7 @@
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5550,6 +5656,7 @@
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5613,6 +5720,7 @@
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5676,6 +5784,7 @@
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5739,6 +5848,7 @@
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5802,6 +5912,7 @@
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5931,6 +6042,9 @@
       <c r="AM58" t="n">
         <v>10438.402</v>
       </c>
+      <c r="AN58" t="n">
+        <v>10704.919</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6060,6 +6174,9 @@
       <c r="AM59" t="n">
         <v>0</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6187,6 +6304,9 @@
         <v>0</v>
       </c>
       <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6252,6 +6372,7 @@
       <c r="AK61" t="inlineStr"/>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6315,6 +6436,7 @@
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6378,6 +6500,7 @@
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6441,6 +6564,7 @@
       <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6504,6 +6628,7 @@
       <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6567,6 +6692,7 @@
       <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6630,6 +6756,7 @@
       <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6759,6 +6886,9 @@
       <c r="AM68" t="n">
         <v>0</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6886,6 +7016,9 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6951,6 +7084,7 @@
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7014,6 +7148,7 @@
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7077,6 +7212,7 @@
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7140,6 +7276,7 @@
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7203,6 +7340,7 @@
       <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7332,6 +7470,9 @@
       <c r="AM75" t="n">
         <v>0</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7461,6 +7602,9 @@
       <c r="AM76" t="n">
         <v>23.022</v>
       </c>
+      <c r="AN76" t="n">
+        <v>114.246</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7590,6 +7734,9 @@
       <c r="AM77" t="n">
         <v>0</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7717,6 +7864,9 @@
         <v>0</v>
       </c>
       <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7782,6 +7932,7 @@
       <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7911,6 +8062,9 @@
       <c r="AM80" t="n">
         <v>0</v>
       </c>
+      <c r="AN80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8040,6 +8194,9 @@
       <c r="AM81" t="n">
         <v>0</v>
       </c>
+      <c r="AN81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8169,6 +8326,9 @@
       <c r="AM82" t="n">
         <v>0</v>
       </c>
+      <c r="AN82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8298,6 +8458,9 @@
       <c r="AM83" t="n">
         <v>0</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8427,6 +8590,9 @@
       <c r="AM84" t="n">
         <v>23.022</v>
       </c>
+      <c r="AN84" t="n">
+        <v>114.246</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8554,6 +8720,9 @@
         <v>0</v>
       </c>
       <c r="AM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8619,6 +8788,7 @@
       <c r="AK86" t="inlineStr"/>
       <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8746,6 +8916,9 @@
         <v>0</v>
       </c>
       <c r="AM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8811,6 +8984,7 @@
       <c r="AK88" t="inlineStr"/>
       <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8874,6 +9048,7 @@
       <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8937,6 +9112,7 @@
       <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9000,6 +9176,7 @@
       <c r="AK91" t="inlineStr"/>
       <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9129,6 +9306,9 @@
       <c r="AM92" t="n">
         <v>0</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9258,6 +9438,9 @@
       <c r="AM93" t="n">
         <v>0</v>
       </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9382,10 +9565,13 @@
         <v>4261.574</v>
       </c>
       <c r="AL94" t="n">
-        <v>4143.36</v>
+        <v>3252.064</v>
       </c>
       <c r="AM94" t="n">
-        <v>3480.413</v>
+        <v>3163.133</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2890.294</v>
       </c>
     </row>
     <row r="95">
@@ -9511,10 +9697,13 @@
         <v>260.931</v>
       </c>
       <c r="AL95" t="n">
-        <v>458.682</v>
+        <v>458.673</v>
       </c>
       <c r="AM95" t="n">
         <v>326.191</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>247.889</v>
       </c>
     </row>
     <row r="96">
@@ -9640,10 +9829,13 @@
         <v>260.931</v>
       </c>
       <c r="AL96" t="n">
-        <v>458.682</v>
+        <v>458.673</v>
       </c>
       <c r="AM96" t="n">
         <v>326.191</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>247.889</v>
       </c>
     </row>
     <row r="97">
@@ -9708,6 +9900,7 @@
       <c r="AK97" t="inlineStr"/>
       <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -9771,6 +9964,7 @@
       <c r="AK98" t="inlineStr"/>
       <c r="AL98" t="inlineStr"/>
       <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -9834,6 +10028,7 @@
       <c r="AK99" t="inlineStr"/>
       <c r="AL99" t="inlineStr"/>
       <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -9963,6 +10158,9 @@
       <c r="AM100" t="n">
         <v>0</v>
       </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10092,6 +10290,9 @@
       <c r="AM101" t="n">
         <v>0</v>
       </c>
+      <c r="AN101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10216,10 +10417,13 @@
         <v>3998.47</v>
       </c>
       <c r="AL102" t="n">
-        <v>3684.677</v>
+        <v>2793.374</v>
       </c>
       <c r="AM102" t="n">
-        <v>3154.217</v>
+        <v>2836.929</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>2642.348</v>
       </c>
     </row>
     <row r="103">
@@ -10345,10 +10549,13 @@
         <v>3834.85</v>
       </c>
       <c r="AL103" t="n">
-        <v>3547.937</v>
+        <v>2675.967</v>
       </c>
       <c r="AM103" t="n">
-        <v>3051.809</v>
+        <v>2736.378</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2553.608</v>
       </c>
     </row>
     <row r="104">
@@ -10474,10 +10681,13 @@
         <v>1973.034</v>
       </c>
       <c r="AL104" t="n">
-        <v>1918.323</v>
+        <v>1073.161</v>
       </c>
       <c r="AM104" t="n">
-        <v>1873.896</v>
+        <v>1564.316</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1919.795</v>
       </c>
     </row>
     <row r="105">
@@ -10606,7 +10816,10 @@
         <v>96.874</v>
       </c>
       <c r="AM105" t="n">
-        <v>114.947</v>
+        <v>116.234</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>36.306</v>
       </c>
     </row>
     <row r="106">
@@ -10732,10 +10945,13 @@
         <v>34.698</v>
       </c>
       <c r="AL106" t="n">
-        <v>26.159</v>
+        <v>14.634</v>
       </c>
       <c r="AM106" t="n">
-        <v>37.919</v>
+        <v>31.703</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>39.152</v>
       </c>
     </row>
     <row r="107">
@@ -10861,10 +11077,13 @@
         <v>1030.332</v>
       </c>
       <c r="AL107" t="n">
-        <v>731.547</v>
+        <v>731.5</v>
       </c>
       <c r="AM107" t="n">
-        <v>631.217</v>
+        <v>633.701</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>373.409</v>
       </c>
     </row>
     <row r="108">
@@ -10995,6 +11214,9 @@
       <c r="AM108" t="n">
         <v>0</v>
       </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -11124,6 +11346,9 @@
       <c r="AM109" t="n">
         <v>0</v>
       </c>
+      <c r="AN109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -11253,6 +11478,9 @@
       <c r="AM110" t="n">
         <v>0</v>
       </c>
+      <c r="AN110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -11377,10 +11605,13 @@
         <v>32.511</v>
       </c>
       <c r="AL111" t="n">
-        <v>34.576</v>
+        <v>19.341</v>
       </c>
       <c r="AM111" t="n">
-        <v>47.98</v>
+        <v>40.706</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>44.06</v>
       </c>
     </row>
     <row r="112">
@@ -11509,7 +11740,10 @@
         <v>740.457</v>
       </c>
       <c r="AM112" t="n">
-        <v>345.85</v>
+        <v>349.717</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>140.886</v>
       </c>
     </row>
     <row r="113">
@@ -11640,6 +11874,9 @@
       <c r="AM113" t="n">
         <v>0</v>
       </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -11769,6 +12006,9 @@
       <c r="AM114" t="n">
         <v>0</v>
       </c>
+      <c r="AN114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -11898,6 +12138,9 @@
       <c r="AM115" t="n">
         <v>0</v>
       </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -12027,6 +12270,9 @@
       <c r="AM116" t="n">
         <v>0</v>
       </c>
+      <c r="AN116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -12156,6 +12402,9 @@
       <c r="AM117" t="n">
         <v>0.987</v>
       </c>
+      <c r="AN117" t="n">
+        <v>0.799</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -12284,6 +12533,9 @@
       </c>
       <c r="AM118" t="n">
         <v>0.987</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.799</v>
       </c>
     </row>
     <row r="119">
@@ -12348,6 +12600,7 @@
       <c r="AK119" t="inlineStr"/>
       <c r="AL119" t="inlineStr"/>
       <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -12411,6 +12664,7 @@
       <c r="AK120" t="inlineStr"/>
       <c r="AL120" t="inlineStr"/>
       <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -12538,6 +12792,9 @@
         <v>0</v>
       </c>
       <c r="AM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12603,6 +12860,7 @@
       <c r="AK122" t="inlineStr"/>
       <c r="AL122" t="inlineStr"/>
       <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -12732,6 +12990,9 @@
       <c r="AM123" t="n">
         <v>0</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -12856,10 +13117,13 @@
         <v>162.529</v>
       </c>
       <c r="AL124" t="n">
-        <v>135.675</v>
+        <v>116.342</v>
       </c>
       <c r="AM124" t="n">
-        <v>101.421</v>
+        <v>99.56399999999999</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>87.941</v>
       </c>
     </row>
     <row r="125">
@@ -12990,6 +13254,9 @@
       <c r="AM125" t="n">
         <v>0</v>
       </c>
+      <c r="AN125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -13114,10 +13381,13 @@
         <v>157.668</v>
       </c>
       <c r="AL126" t="n">
-        <v>131.742</v>
+        <v>112.844</v>
       </c>
       <c r="AM126" t="n">
-        <v>98.661</v>
+        <v>96.876</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>85.732</v>
       </c>
     </row>
     <row r="127">
@@ -13243,10 +13513,13 @@
         <v>4.862</v>
       </c>
       <c r="AL127" t="n">
-        <v>3.928</v>
+        <v>3.487</v>
       </c>
       <c r="AM127" t="n">
-        <v>2.754</v>
+        <v>2.683</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2.204</v>
       </c>
     </row>
     <row r="128">
@@ -13372,9 +13645,12 @@
         <v>0</v>
       </c>
       <c r="AL128" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AM128" t="n">
         <v>0.006</v>
       </c>
-      <c r="AM128" t="n">
+      <c r="AN128" t="n">
         <v>0.006</v>
       </c>
     </row>
@@ -13506,6 +13782,9 @@
       <c r="AM129" t="n">
         <v>0</v>
       </c>
+      <c r="AN129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -13630,10 +13909,13 @@
         <v>2.173</v>
       </c>
       <c r="AL130" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="AM130" t="n">
-        <v>0.004</v>
+        <v>0.013</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>0.058</v>
       </c>
     </row>
     <row r="131">
@@ -13764,6 +14046,9 @@
       <c r="AM131" t="n">
         <v>58.341</v>
       </c>
+      <c r="AN131" t="n">
+        <v>20.937</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -13893,6 +14178,9 @@
       <c r="AM132" t="n">
         <v>0</v>
       </c>
+      <c r="AN132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -14022,6 +14310,9 @@
       <c r="AM133" t="n">
         <v>0</v>
       </c>
+      <c r="AN133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -14151,6 +14442,9 @@
       <c r="AM134" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -14280,6 +14574,9 @@
       <c r="AM135" t="n">
         <v>58.211</v>
       </c>
+      <c r="AN135" t="n">
+        <v>20.937</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -14409,6 +14706,9 @@
       <c r="AM136" t="n">
         <v>0.236</v>
       </c>
+      <c r="AN136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -14538,6 +14838,9 @@
       <c r="AM137" t="n">
         <v>0</v>
       </c>
+      <c r="AN137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -14667,6 +14970,9 @@
       <c r="AM138" t="n">
         <v>0</v>
       </c>
+      <c r="AN138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -14796,6 +15102,9 @@
       <c r="AM139" t="n">
         <v>0.236</v>
       </c>
+      <c r="AN139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -14923,6 +15232,9 @@
         <v>0</v>
       </c>
       <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
         <v>0</v>
       </c>
     </row>
